--- a/cli/googleSheet/maas_compaign_xlsheet.xlsx
+++ b/cli/googleSheet/maas_compaign_xlsheet.xlsx
@@ -12,56 +12,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+  <si>
+    <t>compaign_001</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
     <t>label</t>
   </si>
   <si>
-    <t>no_of_columns</t>
-  </si>
-  <si>
-    <t>column_1</t>
-  </si>
-  <si>
-    <t>column_2</t>
-  </si>
-  <si>
-    <t>column_3</t>
-  </si>
-  <si>
-    <t>column_4</t>
-  </si>
-  <si>
-    <t>column_5</t>
-  </si>
-  <si>
-    <t>column_6</t>
-  </si>
-  <si>
-    <t>compaign_001</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -71,13 +50,13 @@
     <t>repeatable</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>Memo</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>ID</t>
@@ -349,11 +328,10 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="11.88"/>
     <col customWidth="1" min="2" max="2" width="5.5"/>
-    <col customWidth="1" min="3" max="3" width="13.63"/>
-    <col customWidth="1" min="4" max="4" width="7.88"/>
-    <col customWidth="1" min="5" max="5" width="9.38"/>
-    <col customWidth="1" min="6" max="8" width="7.88"/>
-    <col customWidth="1" min="9" max="9" width="8.63"/>
+    <col customWidth="1" min="3" max="3" width="8.25"/>
+    <col customWidth="1" min="4" max="4" width="9.38"/>
+    <col customWidth="1" min="5" max="7" width="8.25"/>
+    <col customWidth="1" min="8" max="8" width="8.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -380,36 +358,6 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -435,68 +383,104 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
